--- a/testcaseEnumeration/hw.xlsx
+++ b/testcaseEnumeration/hw.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajayb\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e5617111\git\SDETTraining\testcaseEnumeration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95E0B24B-A2FB-43E9-9714-912BFED916EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B4FCE1-EA44-4C16-9FED-1D40EAA27097}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{07FD6648-27A6-4658-8F5E-DA80FEB4F54B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{07FD6648-27A6-4658-8F5E-DA80FEB4F54B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Uber" sheetId="1" r:id="rId1"/>
+    <sheet name="Chat Bot" sheetId="4" r:id="rId2"/>
+    <sheet name="Find" sheetId="2" r:id="rId3"/>
+    <sheet name="Time Calc" sheetId="3" r:id="rId4"/>
+    <sheet name="Debug" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="109">
   <si>
     <t>Verify user is able to login to the account</t>
   </si>
@@ -45,9 +49,6 @@
     <t>Verify user is able to select vehicle for the trip</t>
   </si>
   <si>
-    <t>Verify user is able to make payment for the trip</t>
-  </si>
-  <si>
     <t>Verify user is able to apply promo code</t>
   </si>
   <si>
@@ -88,14 +89,289 @@
   </si>
   <si>
     <t>Valid details, Expired card, Invalid CVV</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Verify types of searching</t>
+  </si>
+  <si>
+    <t>Verify highlighting of the matched results</t>
+  </si>
+  <si>
+    <t>Verify able to search using recent searches</t>
+  </si>
+  <si>
+    <t>Verify more number of results retrieved in large file in a short time</t>
+  </si>
+  <si>
+    <t>12 hrs format</t>
+  </si>
+  <si>
+    <t>12:00 AM - 08:00 PM</t>
+  </si>
+  <si>
+    <t>24 hrs format</t>
+  </si>
+  <si>
+    <t>09:00 - 17:00</t>
+  </si>
+  <si>
+    <t>Invalid time</t>
+  </si>
+  <si>
+    <t>25:00 or 13:00 PM</t>
+  </si>
+  <si>
+    <t>Accepts reverse order</t>
+  </si>
+  <si>
+    <t>08:00 PM - 08:00 AM</t>
+  </si>
+  <si>
+    <t>Different format not accepted</t>
+  </si>
+  <si>
+    <t>12:00 AM - 18:00</t>
+  </si>
+  <si>
+    <t>End min is less than begin min</t>
+  </si>
+  <si>
+    <t>06:45 am - 08:12am</t>
+  </si>
+  <si>
+    <t>Accepts seconds</t>
+  </si>
+  <si>
+    <t>6:12:30 PM</t>
+  </si>
+  <si>
+    <t>Invalid min or seconds</t>
+  </si>
+  <si>
+    <t>6:90 or 6:15:70</t>
+  </si>
+  <si>
+    <t>End min greater than start min</t>
+  </si>
+  <si>
+    <t>6:12 am - 8:45 am</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Verify user is able to book cab in peak hours</t>
+  </si>
+  <si>
+    <t>Verify app works with minimum required hardware</t>
+  </si>
+  <si>
+    <t>Verify whether quick links are displayed in chat screen</t>
+  </si>
+  <si>
+    <t>Verify chat invoked for "hi"</t>
+  </si>
+  <si>
+    <t>Ability to search using voice</t>
+  </si>
+  <si>
+    <t>Special characters, numerics, alphabets, alpha numeric</t>
+  </si>
+  <si>
+    <t>Ability to search using text</t>
+  </si>
+  <si>
+    <t>Ability to support multilingual</t>
+  </si>
+  <si>
+    <t>Hindi, English</t>
+  </si>
+  <si>
+    <t>Ability to close converstation on closing the chat box</t>
+  </si>
+  <si>
+    <t>Conversations retained when chat box is minimized</t>
+  </si>
+  <si>
+    <t>Ability to provide solutions to general queries</t>
+  </si>
+  <si>
+    <t>Order status, account status</t>
+  </si>
+  <si>
+    <t>Verify whether top best match results are returned for the searched input</t>
+  </si>
+  <si>
+    <t>Ability to continue the conversation</t>
+  </si>
+  <si>
+    <t>Collecting basic info before connecting to representative</t>
+  </si>
+  <si>
+    <t>Ability to provide suggestions on entering questions</t>
+  </si>
+  <si>
+    <t>Verify microphone is accessed only during querying</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Ability to connect to customer agent</t>
+  </si>
+  <si>
+    <t>Ability to analyze a long sentence question</t>
+  </si>
+  <si>
+    <t>Ability to download the transcript</t>
+  </si>
+  <si>
+    <t>Ability to attach documents to chat</t>
+  </si>
+  <si>
+    <t>PDF,JPG</t>
+  </si>
+  <si>
+    <t>Ability to display related questions</t>
+  </si>
+  <si>
+    <t>Examples</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Verify internet connectivity meeting minimum speed</t>
+  </si>
+  <si>
+    <t>Check RAM availability</t>
+  </si>
+  <si>
+    <t>Verify browser updated to minimum required version</t>
+  </si>
+  <si>
+    <t>Verify plugin players like silverlight is updated and working</t>
+  </si>
+  <si>
+    <t>Server side</t>
+  </si>
+  <si>
+    <t>Verify whether Amazon server is up and running</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Verify account is active</t>
+  </si>
+  <si>
+    <t>Verify whether concurrent users exceeds the limit</t>
+  </si>
+  <si>
+    <t>Verify whether the video played is not corrupted in server</t>
+  </si>
+  <si>
+    <t>Alphabets only, alpha numeric, special characters, regex, wildcard</t>
+  </si>
+  <si>
+    <t>Ability to search with different data</t>
+  </si>
+  <si>
+    <t>Verify able to search data</t>
+  </si>
+  <si>
+    <t>within selected lines, whole document</t>
+  </si>
+  <si>
+    <t>Find</t>
+  </si>
+  <si>
+    <t>Ability to search with different options</t>
+  </si>
+  <si>
+    <t>Match case, match prefix, etc.</t>
+  </si>
+  <si>
+    <t>Replace</t>
+  </si>
+  <si>
+    <t>Ability to replace in more number of areas</t>
+  </si>
+  <si>
+    <t>Ability to replace</t>
+  </si>
+  <si>
+    <t>Ability to enter text in replace text box</t>
+  </si>
+  <si>
+    <t>Alphabets only, alpha numeric, special characters</t>
+  </si>
+  <si>
+    <t>Replace each, replace all</t>
+  </si>
+  <si>
+    <t>Top to bottom, Bottom to top</t>
+  </si>
+  <si>
+    <t>No results found</t>
+  </si>
+  <si>
+    <t>Ability to perform advanced search</t>
+  </si>
+  <si>
+    <t>Searching specific format, searching graphics, etc.</t>
+  </si>
+  <si>
+    <t>Verify whether sensitive information not requested or stored</t>
+  </si>
+  <si>
+    <t>Verify user is able to select payment method for the trip</t>
+  </si>
+  <si>
+    <t>Preliminary</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>* if difference calculated only in a day (12am-11:59pm), then this is not valid one</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -111,7 +387,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -119,14 +395,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,122 +754,674 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2033D3E-4ED7-4D38-9FB1-5C341E0204CE}">
-  <dimension ref="B1:C16"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.36328125" customWidth="1"/>
+    <col min="3" max="3" width="53.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB1BFEB-3C45-41E6-B75C-A9B9699C4000}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="3" max="3" width="63.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CA83F7-C51E-4875-97D1-7BF210E51D41}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="53.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.90625" customWidth="1"/>
+    <col min="3" max="3" width="56.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1B970C-B16D-49F4-BFCD-744D1F87B319}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="54.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>107</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2C7026-C906-4F73-8FBC-F49279978149}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
